--- a/output/fit_clients/fit_round_195.xlsx
+++ b/output/fit_clients/fit_round_195.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1963974129.091107</v>
+        <v>1978869193.478091</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08522605590888789</v>
+        <v>0.09191702369828057</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03042680240595787</v>
+        <v>0.03184653667818069</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>981987055.3242042</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1781339179.668782</v>
+        <v>1715951827.228369</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1286698385484178</v>
+        <v>0.1244240871039139</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04783680404779325</v>
+        <v>0.04094890225098969</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>890669596.0047505</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4061252111.633307</v>
+        <v>4525012085.756265</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1628602628294781</v>
+        <v>0.1027561415374045</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03529373879682109</v>
+        <v>0.02653666226504475</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>70</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2030626074.309206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2851400320.303926</v>
+        <v>4072917939.692132</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07819923023507669</v>
+        <v>0.07283975893895377</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04859081872924277</v>
+        <v>0.03262414822418058</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>75</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1425700239.818023</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2697670013.268137</v>
+        <v>2438671018.589558</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1233005838309183</v>
+        <v>0.1370441740327305</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03712346344751401</v>
+        <v>0.05107687672281508</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>31</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1348834960.69944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2855621556.151996</v>
+        <v>2226253099.601038</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08646155677494391</v>
+        <v>0.06905985673998744</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03508162108658081</v>
+        <v>0.03390236870052003</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>60</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1427810756.820411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2822215827.896892</v>
+        <v>2903735049.466985</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1448951157767719</v>
+        <v>0.2119953072128168</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02627812527992479</v>
+        <v>0.02887725089544201</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>62</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1411107953.268423</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1411237063.123577</v>
+        <v>2316155711.382181</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1978528648766958</v>
+        <v>0.1707882726788016</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03036448884932843</v>
+        <v>0.03568561997798365</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>705618639.830906</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4495789396.487086</v>
+        <v>4460612002.010474</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2115513420473338</v>
+        <v>0.154656633434451</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04989896665145464</v>
+        <v>0.04543021308424749</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>82</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2247894758.470608</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2627171093.610237</v>
+        <v>3187751455.63522</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1896983397344005</v>
+        <v>0.1491254399347312</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03285428872780404</v>
+        <v>0.0488158735576642</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>81</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1313585463.706125</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3158769170.215533</v>
+        <v>3138338887.797663</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1317127611637338</v>
+        <v>0.1816481734487039</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05065272456041756</v>
+        <v>0.041605167856475</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>69</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1579384617.637739</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3893929595.629174</v>
+        <v>3976706241.126981</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09201435489338386</v>
+        <v>0.06620584355145302</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02510529001398742</v>
+        <v>0.02239802994455727</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>65</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1946964858.116668</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3656253987.288569</v>
+        <v>3354448359.384918</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1364657310047573</v>
+        <v>0.1706658721565087</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02868141174662516</v>
+        <v>0.028159950376406</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>64</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1828126980.540043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1430082912.368328</v>
+        <v>1667675089.553318</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07523833350462325</v>
+        <v>0.09679946168073462</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04435390747213654</v>
+        <v>0.03929736998456619</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>715041525.8163224</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2135012304.958785</v>
+        <v>2609128637.377861</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09528943678239807</v>
+        <v>0.08763082192889897</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03174459151268881</v>
+        <v>0.03134652772269127</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>30</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1067506215.889259</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3328233597.184329</v>
+        <v>4256209101.145667</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1370925687531277</v>
+        <v>0.1348806047158925</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04455298000126045</v>
+        <v>0.04506003456482829</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>57</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1664116866.393538</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2510793616.805338</v>
+        <v>3530566288.067904</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1301953379944264</v>
+        <v>0.1664034882851368</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03116547305189023</v>
+        <v>0.02502235331178939</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>64</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1255396874.058934</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>920671786.3033893</v>
+        <v>1229430342.764849</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1184468781256986</v>
+        <v>0.1876502765308104</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0265175347442314</v>
+        <v>0.02678871105438343</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>460335903.0487668</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2012715808.836943</v>
+        <v>1712858955.765927</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1449270490104247</v>
+        <v>0.1094053557936686</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02269863269827965</v>
+        <v>0.02752647136335655</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>33</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1006357929.397114</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2248042943.879074</v>
+        <v>2328518709.114556</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09711970008898728</v>
+        <v>0.07483474932167128</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03572227341515768</v>
+        <v>0.04389071497783646</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>15</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1124021484.157805</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2611225605.942231</v>
+        <v>2833923060.740394</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1141761877542425</v>
+        <v>0.1103586575005073</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04502797919919414</v>
+        <v>0.03776244650382558</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>54</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1305612887.759993</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1184498839.782013</v>
+        <v>1486429121.984918</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1833747990197665</v>
+        <v>0.1568690409714477</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03697742668970241</v>
+        <v>0.04679088788874176</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>592249458.9750524</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2598927998.357549</v>
+        <v>2837453365.611066</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1361190705427886</v>
+        <v>0.1038999725034963</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02721808223759489</v>
+        <v>0.03187643650008441</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>57</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1299464061.375042</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1269673030.163453</v>
+        <v>921512591.5141896</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07715534612774583</v>
+        <v>0.104058869342958</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01918675227181291</v>
+        <v>0.02780180355211461</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>634836517.0140349</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1350291838.81156</v>
+        <v>907378224.0387325</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08187842454480526</v>
+        <v>0.109359690590636</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0363933161987711</v>
+        <v>0.03848867144307471</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>675145977.2544879</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4679429678.30927</v>
+        <v>3734242447.608352</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1096190859588596</v>
+        <v>0.098163840247569</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02520187339707087</v>
+        <v>0.01874264719120499</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>44</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2339714815.512144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3814123716.224342</v>
+        <v>3361031046.055291</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1429505246550321</v>
+        <v>0.1179247857346246</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03198613251415768</v>
+        <v>0.03032890006696537</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>63</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1907061940.003598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4327673818.506951</v>
+        <v>5363532110.815641</v>
       </c>
       <c r="F29" t="n">
-        <v>0.142007923449657</v>
+        <v>0.1002955430702207</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04322057804157856</v>
+        <v>0.04275691542260573</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>88</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2163836903.423347</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2223420548.860592</v>
+        <v>2292941095.119586</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1073506725684422</v>
+        <v>0.1106906484169807</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02864522985223799</v>
+        <v>0.03206514468660892</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1111710337.297791</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1045757689.603312</v>
+        <v>1455817291.873957</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1066900676096825</v>
+        <v>0.102900350192692</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03233740021009671</v>
+        <v>0.03585943212254856</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>522878832.5549384</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1606097139.909921</v>
+        <v>1489156868.680759</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08049702018230151</v>
+        <v>0.1152963690346038</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03411189854900924</v>
+        <v>0.02537810553217075</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>803048660.2767032</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2556361622.977739</v>
+        <v>3052263716.386377</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1952747792550781</v>
+        <v>0.1635742624072744</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05548891134842048</v>
+        <v>0.03901373328197841</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>59</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1278180844.863995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1271029851.248711</v>
+        <v>1563528260.384676</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08584361730741306</v>
+        <v>0.1199548946551802</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02491366333887275</v>
+        <v>0.02820057781422854</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>635514918.9796637</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1202746335.583506</v>
+        <v>1332434795.620173</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09604112597111104</v>
+        <v>0.07957595897194109</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03491950730042413</v>
+        <v>0.03741786865594796</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>601373141.8852524</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2931507645.423495</v>
+        <v>2277143911.332387</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1160561552015428</v>
+        <v>0.1745664891036763</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02376931258824583</v>
+        <v>0.01749901955836911</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>50</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1465753810.111076</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2341624492.028068</v>
+        <v>2168639941.644319</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07548243742158346</v>
+        <v>0.09043246217924951</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03137609735452974</v>
+        <v>0.02768576754016886</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>53</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1170812320.260625</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1425947775.98867</v>
+        <v>1994094664.352214</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1106580424039044</v>
+        <v>0.1052264609441957</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02510062660844434</v>
+        <v>0.02787081210548562</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>712973947.6904861</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1646864598.17074</v>
+        <v>1852955402.646449</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1533666444311988</v>
+        <v>0.1168318333119597</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02292437836504748</v>
+        <v>0.0223206547426457</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>823432347.2320732</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1704500037.00064</v>
+        <v>1297645670.904217</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1200563534852978</v>
+        <v>0.1196440734591219</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04001591659945439</v>
+        <v>0.03949865002540561</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>852249933.4904866</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2717376468.994588</v>
+        <v>1982959336.686018</v>
       </c>
       <c r="F41" t="n">
-        <v>0.108972639151884</v>
+        <v>0.1597388129434608</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03131089864548087</v>
+        <v>0.03923805032260402</v>
       </c>
       <c r="H41" t="b">
         <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>48</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1358688238.515219</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3363218785.818966</v>
+        <v>4081497242.01766</v>
       </c>
       <c r="F42" t="n">
-        <v>0.125532587294699</v>
+        <v>0.124584882528398</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04294963169673177</v>
+        <v>0.03511974967242984</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>66</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1681609378.321377</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2419865978.000332</v>
+        <v>2578099447.703646</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1266775097119919</v>
+        <v>0.1376164467667459</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01962842440645059</v>
+        <v>0.02482901532971246</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>67</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1209933045.680506</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1845009333.912966</v>
+        <v>1908231851.11982</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06408710783825201</v>
+        <v>0.09265535977173323</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02484168016500836</v>
+        <v>0.0313867254511087</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>922504742.344847</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2002299751.750592</v>
+        <v>2241454577.82277</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1864424789754838</v>
+        <v>0.1593893580828563</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03460591531803969</v>
+        <v>0.05165891100032258</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1001149866.939451</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5055985226.587182</v>
+        <v>3697029501.588577</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1195477356475881</v>
+        <v>0.1250867640187742</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04759891783820298</v>
+        <v>0.04301554163403969</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>69</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2527992643.254107</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4535520975.227431</v>
+        <v>4356716997.631391</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1941005654532105</v>
+        <v>0.1486009963052393</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05757542492476626</v>
+        <v>0.04917000439070139</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>52</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2267760517.106406</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4630265188.294169</v>
+        <v>4153867492.410597</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0873893353658754</v>
+        <v>0.07725253425215201</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02805280308134544</v>
+        <v>0.02951299146553153</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>65</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2315132591.887733</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1224834572.218607</v>
+        <v>1541003791.522698</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1311261156429217</v>
+        <v>0.1417328085047639</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02891081935668804</v>
+        <v>0.03644385766531769</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>612417360.8971488</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4028999506.963456</v>
+        <v>2995447075.064212</v>
       </c>
       <c r="F50" t="n">
-        <v>0.140682448364702</v>
+        <v>0.1380274225885663</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04751368228621081</v>
+        <v>0.03836783695456787</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>66</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2014499740.071076</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1321787756.520451</v>
+        <v>1282092864.702636</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1910612776521023</v>
+        <v>0.175388578411862</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04988119892333327</v>
+        <v>0.05173520042620111</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>660893910.0575786</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4453051190.202137</v>
+        <v>4391608495.478763</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1035245073249022</v>
+        <v>0.1031112851759172</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06086025842784462</v>
+        <v>0.06051871112879635</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>80</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2226525624.895259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2520073099.302972</v>
+        <v>2754964973.63203</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1500010824291808</v>
+        <v>0.1253177808037669</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03357830335714637</v>
+        <v>0.0227800349593812</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>56</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1260036615.163054</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3981293981.19936</v>
+        <v>3348086814.031186</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1457908561100441</v>
+        <v>0.1315685192761894</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04798344892366319</v>
+        <v>0.05229065558766455</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>65</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1990647053.19237</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3313244656.389766</v>
+        <v>3250795363.398013</v>
       </c>
       <c r="F55" t="n">
-        <v>0.215637643302464</v>
+        <v>0.1895132700364103</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02053339280526308</v>
+        <v>0.02132387089820147</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>50</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1656622272.762342</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1641051867.620866</v>
+        <v>1289762001.136246</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1320783514337826</v>
+        <v>0.1026096127462915</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05748712616029463</v>
+        <v>0.04612069414104679</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>820525955.145896</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4394535366.425742</v>
+        <v>3682999700.654007</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1719716500466044</v>
+        <v>0.1248789190868951</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01856389249864197</v>
+        <v>0.01689502868273448</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>62</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2197267804.688261</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1522984268.918883</v>
+        <v>1550114485.797775</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1734064490327893</v>
+        <v>0.1713043692147358</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03441594598931268</v>
+        <v>0.03158806596494263</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>761492163.4677862</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4837659446.746023</v>
+        <v>4085768780.519636</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1277113514517778</v>
+        <v>0.09007736972389155</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04070160100014263</v>
+        <v>0.04704103482173163</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>53</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2418829658.875507</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2638015977.082063</v>
+        <v>3616878737.967428</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1266634967821838</v>
+        <v>0.1309162575036166</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02678661610397917</v>
+        <v>0.02398363177657887</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>61</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1319008020.89203</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2254396239.682823</v>
+        <v>2903709205.408005</v>
       </c>
       <c r="F61" t="n">
-        <v>0.175876575101148</v>
+        <v>0.1279161295903982</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02096229348867818</v>
+        <v>0.02555641682351982</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>67</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1127198170.598471</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2075809458.092385</v>
+        <v>1759756942.162871</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1919214964648945</v>
+        <v>0.118362424107778</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03200080663378949</v>
+        <v>0.03412669162525148</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1037904798.491546</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4236130956.416471</v>
+        <v>3574512429.406216</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07743868470566005</v>
+        <v>0.08583839944221386</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03717043674211963</v>
+        <v>0.04548313831210085</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>56</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2118065530.036348</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4618063728.977433</v>
+        <v>3421182734.701917</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1323645613795533</v>
+        <v>0.1440921208150299</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02582858381186553</v>
+        <v>0.03238831386919426</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>61</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2309031943.80342</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5475907839.511484</v>
+        <v>5324494650.388465</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1272881302739623</v>
+        <v>0.1362148168941047</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02350681265699495</v>
+        <v>0.01962574613392803</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>71</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2737953850.257423</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3738126859.754165</v>
+        <v>4186845922.695266</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1599896928499958</v>
+        <v>0.1311453370237799</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03969182353205954</v>
+        <v>0.03580561378449536</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>57</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1869063389.437156</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3379529401.165511</v>
+        <v>3051345808.862595</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1020103170628352</v>
+        <v>0.07750665078427442</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04298096995555345</v>
+        <v>0.0312834772292892</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>64</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1689764686.729163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5716575146.55593</v>
+        <v>5719066325.388901</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1339531821498385</v>
+        <v>0.1075931134682118</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03712446810773364</v>
+        <v>0.03433913860979169</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>63</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2858287673.077573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2388110770.632598</v>
+        <v>1673764533.987324</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1769628870507257</v>
+        <v>0.11306560889058</v>
       </c>
       <c r="G69" t="n">
-        <v>0.06020339605406474</v>
+        <v>0.0375383735662938</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1194055440.414103</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3142437071.640766</v>
+        <v>3493633555.1032</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09158076170260124</v>
+        <v>0.09035383427720987</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03613183714454795</v>
+        <v>0.03962567563597935</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>56</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1571218522.124054</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4733398277.127069</v>
+        <v>4282105257.693306</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1308125014774767</v>
+        <v>0.1844899023133243</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02494945598761136</v>
+        <v>0.02635531291264031</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>71</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2366699224.346021</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1493811568.65168</v>
+        <v>2056113837.915139</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09698597225356688</v>
+        <v>0.07679887466017109</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03527425027751016</v>
+        <v>0.03262204497842789</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>746905812.2842999</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3129820635.274395</v>
+        <v>3572547902.212834</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08403446086071896</v>
+        <v>0.107843931885187</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03589107912960553</v>
+        <v>0.05161650653027686</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>73</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1564910301.717696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2903052048.507582</v>
+        <v>2691056060.445359</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1644482326472581</v>
+        <v>0.1698036449429535</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02526048609799916</v>
+        <v>0.02890981015658337</v>
       </c>
       <c r="H74" t="b">
         <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>66</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1451526098.032648</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1684323731.119403</v>
+        <v>2422062122.215313</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1459107904411508</v>
+        <v>0.1184504753619155</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03772240934919217</v>
+        <v>0.03390557778121634</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>842161859.2724589</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3565055954.658941</v>
+        <v>4754131183.11213</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1131148662347781</v>
+        <v>0.1213506754872292</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02086504884004405</v>
+        <v>0.02929845959782083</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>43</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1782527943.813244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1762850345.36156</v>
+        <v>1552986109.640271</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1492693158616855</v>
+        <v>0.1572020755245152</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02772676822835608</v>
+        <v>0.0198888770081183</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>881425199.1942458</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3261018514.004238</v>
+        <v>4360011922.021171</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1161953578621541</v>
+        <v>0.111549459836768</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05679697842388748</v>
+        <v>0.04299735056429325</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>68</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1630509275.591541</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1532808683.738824</v>
+        <v>1920787139.333194</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1763918297280779</v>
+        <v>0.1426167755815805</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02998865338922358</v>
+        <v>0.04068797078852949</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>766404381.764994</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4729629489.481806</v>
+        <v>3877947554.920331</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07364596628684275</v>
+        <v>0.09566675972884556</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02366554798081667</v>
+        <v>0.03289651167027607</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>41</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2364814780.469127</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5104938197.447087</v>
+        <v>5127697185.581384</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1341081937170609</v>
+        <v>0.1264217920941241</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02932627775155293</v>
+        <v>0.02425577190608914</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>43</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2552469102.935501</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3871550796.958567</v>
+        <v>4216723509.142402</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1365630547462404</v>
+        <v>0.1652460389658597</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02733443924065006</v>
+        <v>0.01859501939256209</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>68</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1935775445.378098</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2129279245.291377</v>
+        <v>1813311580.15767</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1054696598840614</v>
+        <v>0.1175175507117047</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03100794064431298</v>
+        <v>0.03887621601031752</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1064639623.98327</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2568555604.17524</v>
+        <v>2297520116.348036</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1016081626771583</v>
+        <v>0.1134662050707975</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03894982241289278</v>
+        <v>0.05028365289685367</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1284277723.844007</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2868519404.031823</v>
+        <v>2902739227.508086</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1442506314829604</v>
+        <v>0.1531584027419059</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04806974185890155</v>
+        <v>0.03829796088499523</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>73</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1434259747.617344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2647727166.471223</v>
+        <v>2161222059.993083</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1293161923910484</v>
+        <v>0.1438971236239365</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01973897625483435</v>
+        <v>0.01885489225898338</v>
       </c>
       <c r="H86" t="b">
         <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>26</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1323863700.927549</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1387049454.940239</v>
+        <v>1182244493.645185</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1820372420311052</v>
+        <v>0.1203542891332816</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03379546425426446</v>
+        <v>0.03754423706216757</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>693524830.9653078</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3305462388.277656</v>
+        <v>3170925279.064677</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1114799371637588</v>
+        <v>0.1156783405927613</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02836622362648845</v>
+        <v>0.02743541933652469</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>78</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1652731254.748741</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3166531491.228414</v>
+        <v>3010761222.654022</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1239644113587689</v>
+        <v>0.1243854572597348</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03381612717217075</v>
+        <v>0.03009706133115062</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>69</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1583265771.507379</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1582578017.75118</v>
+        <v>2035565512.916105</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09739916205455068</v>
+        <v>0.1273193007742289</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03862630795555184</v>
+        <v>0.03412797497035252</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>791289002.6813896</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1495516443.491645</v>
+        <v>1778287136.738958</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1766000968235307</v>
+        <v>0.1460336429049414</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05875273884237529</v>
+        <v>0.04112741320947806</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>747758261.2347467</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2338059356.244111</v>
+        <v>2919428908.321003</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07143686115603512</v>
+        <v>0.1002486114912959</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03957936544981194</v>
+        <v>0.04141038124949338</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>47</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1169029649.800736</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4374504218.6931</v>
+        <v>5019656100.62464</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09697213271051323</v>
+        <v>0.1408252908875062</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04363855299557688</v>
+        <v>0.03981398353542377</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>61</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2187252085.707597</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2036545893.293744</v>
+        <v>2355249248.443646</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1066098860346868</v>
+        <v>0.1083046533283214</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03369494251231481</v>
+        <v>0.02838533621902791</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1018272949.719678</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2467592310.808548</v>
+        <v>2961883778.705297</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1095250454399677</v>
+        <v>0.1133504115692165</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04975104256157183</v>
+        <v>0.03941368548469849</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>47</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1233796193.818438</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2393912236.281689</v>
+        <v>1938727152.600604</v>
       </c>
       <c r="F96" t="n">
-        <v>0.101526506353784</v>
+        <v>0.1271356006862214</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03048212711910788</v>
+        <v>0.03794276955765397</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1196956063.042947</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3488855946.822847</v>
+        <v>3264584362.972699</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1327896533286008</v>
+        <v>0.1405342092474297</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01781151505238194</v>
+        <v>0.0259139603036281</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>66</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1744427988.667001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3087045671.87676</v>
+        <v>2811167710.43666</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1180262874029102</v>
+        <v>0.1242202339483109</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02717746667719977</v>
+        <v>0.02276965617393042</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>52</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1543522826.535754</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2090858991.796418</v>
+        <v>2470639154.526747</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1033087143368433</v>
+        <v>0.1200496398298389</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02502460896995914</v>
+        <v>0.03273251665642577</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>61</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1045429415.959109</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3754403379.997603</v>
+        <v>3606613626.661174</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1601935477912387</v>
+        <v>0.1238227242744015</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02151326273942053</v>
+        <v>0.02009184060717837</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>61</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1877201741.053679</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2664659162.113633</v>
+        <v>3342687603.958551</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1986304450608452</v>
+        <v>0.1992209974872809</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04332896960175255</v>
+        <v>0.05035269008782164</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>78</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1332329625.761893</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_195.xlsx
+++ b/output/fit_clients/fit_round_195.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1978869193.478091</v>
+        <v>1738235040.838485</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09191702369828057</v>
+        <v>0.1023105147115607</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03184653667818069</v>
+        <v>0.04230033546367433</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1715951827.228369</v>
+        <v>1720669518.267852</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1244240871039139</v>
+        <v>0.1807804847628298</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04094890225098969</v>
+        <v>0.04743816979954555</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4525012085.756265</v>
+        <v>5104172210.426605</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1027561415374045</v>
+        <v>0.1337065416428088</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02653666226504475</v>
+        <v>0.03535161564768888</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4072917939.692132</v>
+        <v>2974166676.1364</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07283975893895377</v>
+        <v>0.1060426148979971</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03262414822418058</v>
+        <v>0.03552811731038869</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2438671018.589558</v>
+        <v>2797657004.438094</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1370441740327305</v>
+        <v>0.09797390531079612</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05107687672281508</v>
+        <v>0.04282309671059102</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2226253099.601038</v>
+        <v>2408293005.199056</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06905985673998744</v>
+        <v>0.08524794753886214</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03390236870052003</v>
+        <v>0.03184305759688499</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2903735049.466985</v>
+        <v>2685514286.640242</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2119953072128168</v>
+        <v>0.169640807482105</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02887725089544201</v>
+        <v>0.02295150433105177</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2316155711.382181</v>
+        <v>2011337232.94564</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1707882726788016</v>
+        <v>0.1500297318292279</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03568561997798365</v>
+        <v>0.02773731537630891</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4460612002.010474</v>
+        <v>4999452187.724837</v>
       </c>
       <c r="F10" t="n">
-        <v>0.154656633434451</v>
+        <v>0.2105326677334484</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04543021308424749</v>
+        <v>0.04712705345529945</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3187751455.63522</v>
+        <v>3765290582.959661</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1491254399347312</v>
+        <v>0.1401123851142669</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0488158735576642</v>
+        <v>0.04001570531637723</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3138338887.797663</v>
+        <v>2705615314.805881</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1816481734487039</v>
+        <v>0.1287685698947448</v>
       </c>
       <c r="G12" t="n">
-        <v>0.041605167856475</v>
+        <v>0.03258591564044717</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3976706241.126981</v>
+        <v>3728302416.103217</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06620584355145302</v>
+        <v>0.09383962189288593</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02239802994455727</v>
+        <v>0.02105689620532274</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3354448359.384918</v>
+        <v>3051136906.699274</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1706658721565087</v>
+        <v>0.1600955112389637</v>
       </c>
       <c r="G14" t="n">
-        <v>0.028159950376406</v>
+        <v>0.0379033521311083</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1667675089.553318</v>
+        <v>1208133601.390616</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09679946168073462</v>
+        <v>0.09924438549502276</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03929736998456619</v>
+        <v>0.03609633561958839</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2609128637.377861</v>
+        <v>2788032534.15102</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08763082192889897</v>
+        <v>0.07005990124385811</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03134652772269127</v>
+        <v>0.03469086613354751</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4256209101.145667</v>
+        <v>4353877320.351667</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1348806047158925</v>
+        <v>0.1414500588922754</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04506003456482829</v>
+        <v>0.04762065402364672</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3530566288.067904</v>
+        <v>2914942037.721265</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1664034882851368</v>
+        <v>0.1580057615376463</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02502235331178939</v>
+        <v>0.02642980788176886</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1229430342.764849</v>
+        <v>1232706407.688092</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1876502765308104</v>
+        <v>0.1576549607949173</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02678871105438343</v>
+        <v>0.0233872675975551</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1712858955.765927</v>
+        <v>2306109875.181419</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1094053557936686</v>
+        <v>0.1486058559709186</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02752647136335655</v>
+        <v>0.02328796543863074</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2328518709.114556</v>
+        <v>2422177080.269169</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07483474932167128</v>
+        <v>0.08146332675054528</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04389071497783646</v>
+        <v>0.03782145388880587</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2833923060.740394</v>
+        <v>3687681075.459656</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1103586575005073</v>
+        <v>0.1258757275126239</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03776244650382558</v>
+        <v>0.03465237573689235</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1486429121.984918</v>
+        <v>1374476292.989425</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1568690409714477</v>
+        <v>0.1617891309538389</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04679088788874176</v>
+        <v>0.0406322962798246</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2837453365.611066</v>
+        <v>3079269776.481703</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1038999725034963</v>
+        <v>0.1084943591616291</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03187643650008441</v>
+        <v>0.03453134696495772</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>921512591.5141896</v>
+        <v>1074700957.167866</v>
       </c>
       <c r="F25" t="n">
-        <v>0.104058869342958</v>
+        <v>0.1064643954712881</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02780180355211461</v>
+        <v>0.02989956769808368</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>907378224.0387325</v>
+        <v>1346800217.813593</v>
       </c>
       <c r="F26" t="n">
-        <v>0.109359690590636</v>
+        <v>0.08259136450615376</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03848867144307471</v>
+        <v>0.03297587865777177</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3734242447.608352</v>
+        <v>4538625166.025579</v>
       </c>
       <c r="F27" t="n">
-        <v>0.098163840247569</v>
+        <v>0.1216677342186022</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01874264719120499</v>
+        <v>0.01796705950371359</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3361031046.055291</v>
+        <v>3310317195.192807</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1179247857346246</v>
+        <v>0.1367123807905072</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03032890006696537</v>
+        <v>0.04480670728253226</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5363532110.815641</v>
+        <v>5230364366.480024</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1002955430702207</v>
+        <v>0.1114931895499119</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04275691542260573</v>
+        <v>0.04328956799698463</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2292941095.119586</v>
+        <v>2147993166.821418</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1106906484169807</v>
+        <v>0.1020745817311766</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03206514468660892</v>
+        <v>0.0303349485396253</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1455817291.873957</v>
+        <v>1214968623.254961</v>
       </c>
       <c r="F31" t="n">
-        <v>0.102900350192692</v>
+        <v>0.1006036327296561</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03585943212254856</v>
+        <v>0.03568042052031813</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1489156868.680759</v>
+        <v>1850581946.910286</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1152963690346038</v>
+        <v>0.1072310002361402</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02537810553217075</v>
+        <v>0.03128809144084939</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3052263716.386377</v>
+        <v>3067002710.676453</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1635742624072744</v>
+        <v>0.141086928672908</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03901373328197841</v>
+        <v>0.04960052649198125</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1382,16 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1563528260.384676</v>
+        <v>1281345419.451029</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1199548946551802</v>
+        <v>0.1141558443640218</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02820057781422854</v>
+        <v>0.02140597143657516</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1332434795.620173</v>
+        <v>868058311.6325172</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07957595897194109</v>
+        <v>0.104201007527572</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03741786865594796</v>
+        <v>0.02867334705360369</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2277143911.332387</v>
+        <v>2652127507.454832</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1745664891036763</v>
+        <v>0.1735839962809181</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01749901955836911</v>
+        <v>0.02168607486482107</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2168639941.644319</v>
+        <v>2403234253.293725</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09043246217924951</v>
+        <v>0.07190743615114517</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02768576754016886</v>
+        <v>0.04233870098979208</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1994094664.352214</v>
+        <v>1610611064.325196</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1052264609441957</v>
+        <v>0.07496099475897593</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02787081210548562</v>
+        <v>0.03777196092384148</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1852955402.646449</v>
+        <v>1747840244.377134</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1168318333119597</v>
+        <v>0.1314319949336262</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0223206547426457</v>
+        <v>0.02994227384487213</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1297645670.904217</v>
+        <v>1103108847.675316</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1196440734591219</v>
+        <v>0.1225672511717291</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03949865002540561</v>
+        <v>0.05363669204801439</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1982959336.686018</v>
+        <v>2926073480.39261</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1597388129434608</v>
+        <v>0.1223497368004882</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03923805032260402</v>
+        <v>0.04492687135712942</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4081497242.01766</v>
+        <v>3399993173.064349</v>
       </c>
       <c r="F42" t="n">
-        <v>0.124584882528398</v>
+        <v>0.08908269763750951</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03511974967242984</v>
+        <v>0.03388946487667295</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2578099447.703646</v>
+        <v>2733532301.702123</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1376164467667459</v>
+        <v>0.1439240594846353</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02482901532971246</v>
+        <v>0.0205695380192235</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1908231851.11982</v>
+        <v>1523270896.780502</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09265535977173323</v>
+        <v>0.1010108558540058</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0313867254511087</v>
+        <v>0.03358903205882711</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2241454577.82277</v>
+        <v>1988570749.003189</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1593893580828563</v>
+        <v>0.1658825963565516</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05165891100032258</v>
+        <v>0.04551544587801221</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3697029501.588577</v>
+        <v>4244033443.503867</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1250867640187742</v>
+        <v>0.1100375716934158</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04301554163403969</v>
+        <v>0.05582736771109814</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4356716997.631391</v>
+        <v>4509487162.909637</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1486009963052393</v>
+        <v>0.1419754675369886</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04917000439070139</v>
+        <v>0.03860829226070612</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4153867492.410597</v>
+        <v>3722549067.337088</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07725253425215201</v>
+        <v>0.108197459438764</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02951299146553153</v>
+        <v>0.03043885343088665</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1541003791.522698</v>
+        <v>1898280422.238489</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1417328085047639</v>
+        <v>0.1747166643011314</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03644385766531769</v>
+        <v>0.03212304541056704</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2995447075.064212</v>
+        <v>3736574656.067768</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1380274225885663</v>
+        <v>0.1670302940087933</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03836783695456787</v>
+        <v>0.03828969000826826</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1282092864.702636</v>
+        <v>1499104187.907514</v>
       </c>
       <c r="F51" t="n">
-        <v>0.175388578411862</v>
+        <v>0.1654625389863904</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05173520042620111</v>
+        <v>0.04050091176547226</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4391608495.478763</v>
+        <v>4554738094.133731</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1031112851759172</v>
+        <v>0.1089967402622781</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06051871112879635</v>
+        <v>0.03889813542295559</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2754964973.63203</v>
+        <v>2686156038.484195</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1253177808037669</v>
+        <v>0.162952427914991</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0227800349593812</v>
+        <v>0.03515652959566565</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3348086814.031186</v>
+        <v>4638328059.295437</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1315685192761894</v>
+        <v>0.1693364694370008</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05229065558766455</v>
+        <v>0.04248467520512389</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3250795363.398013</v>
+        <v>4832886552.723119</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1895132700364103</v>
+        <v>0.1898995453296938</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02132387089820147</v>
+        <v>0.0207994783178969</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1289762001.136246</v>
+        <v>1152919749.700526</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1026096127462915</v>
+        <v>0.135162591823102</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04612069414104679</v>
+        <v>0.05475737639543694</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3682999700.654007</v>
+        <v>4482743798.420221</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1248789190868951</v>
+        <v>0.1833963632754007</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01689502868273448</v>
+        <v>0.01704622827465881</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1550114485.797775</v>
+        <v>1601034074.656563</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1713043692147358</v>
+        <v>0.1777707542761961</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03158806596494263</v>
+        <v>0.03346031039344606</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4085768780.519636</v>
+        <v>4902378266.735373</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09007736972389155</v>
+        <v>0.1103890845772716</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04704103482173163</v>
+        <v>0.04371336722326015</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3616878737.967428</v>
+        <v>3501397920.73624</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1309162575036166</v>
+        <v>0.2052641973500876</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02398363177657887</v>
+        <v>0.02817513267465858</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2903709205.408005</v>
+        <v>3114823067.214436</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1279161295903982</v>
+        <v>0.1153174934756558</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02555641682351982</v>
+        <v>0.02719629172443833</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1759756942.162871</v>
+        <v>1699687126.59015</v>
       </c>
       <c r="F62" t="n">
-        <v>0.118362424107778</v>
+        <v>0.174173838159705</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03412669162525148</v>
+        <v>0.04655246554189052</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3574512429.406216</v>
+        <v>4104474642.180499</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08583839944221386</v>
+        <v>0.07958854477331116</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04548313831210085</v>
+        <v>0.04044100030233056</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3421182734.701917</v>
+        <v>3812877708.428616</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1440921208150299</v>
+        <v>0.1353248252225221</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03238831386919426</v>
+        <v>0.03562612093607882</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5324494650.388465</v>
+        <v>5022767425.660369</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1362148168941047</v>
+        <v>0.1252108562103941</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01962574613392803</v>
+        <v>0.0279488722081273</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4186845922.695266</v>
+        <v>5379562276.493884</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1311453370237799</v>
+        <v>0.1207084661526006</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03580561378449536</v>
+        <v>0.04438395135701043</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3051345808.862595</v>
+        <v>2587069323.436745</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07750665078427442</v>
+        <v>0.09946561238515707</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0312834772292892</v>
+        <v>0.03258128890796499</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5719066325.388901</v>
+        <v>4791393276.719157</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1075931134682118</v>
+        <v>0.1349911714561688</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03433913860979169</v>
+        <v>0.04604785145713307</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1673764533.987324</v>
+        <v>2361281115.903723</v>
       </c>
       <c r="F69" t="n">
-        <v>0.11306560889058</v>
+        <v>0.1387002594447476</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0375383735662938</v>
+        <v>0.05895566030184344</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3493633555.1032</v>
+        <v>2961175940.07186</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09035383427720987</v>
+        <v>0.06313224036221529</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03962567563597935</v>
+        <v>0.04668012274504765</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4282105257.693306</v>
+        <v>4904307760.329293</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1844899023133243</v>
+        <v>0.1228455840924015</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02635531291264031</v>
+        <v>0.02717878084268209</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2056113837.915139</v>
+        <v>1538735629.571114</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07679887466017109</v>
+        <v>0.07750895924919741</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03262204497842789</v>
+        <v>0.03557805125523194</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3572547902.212834</v>
+        <v>2349122455.327673</v>
       </c>
       <c r="F73" t="n">
-        <v>0.107843931885187</v>
+        <v>0.09043631167094943</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05161650653027686</v>
+        <v>0.05185911357037457</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,16 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2691056060.445359</v>
+        <v>3913504622.009728</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1698036449429535</v>
+        <v>0.1578505085974322</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02890981015658337</v>
+        <v>0.03493959128635997</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2422062122.215313</v>
+        <v>1972302084.101669</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1184504753619155</v>
+        <v>0.1460201153637212</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03390557778121634</v>
+        <v>0.03696764940322638</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4754131183.11213</v>
+        <v>4861058082.184107</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1213506754872292</v>
+        <v>0.1017478785849916</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02929845959782083</v>
+        <v>0.03089276683932049</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1552986109.640271</v>
+        <v>2089929104.048824</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1572020755245152</v>
+        <v>0.1291141686105608</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0198888770081183</v>
+        <v>0.03159907930553466</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4360011922.021171</v>
+        <v>4465131069.220256</v>
       </c>
       <c r="F78" t="n">
-        <v>0.111549459836768</v>
+        <v>0.1241641816454669</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04299735056429325</v>
+        <v>0.03791916059976511</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1920787139.333194</v>
+        <v>1176703550.336292</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1426167755815805</v>
+        <v>0.1722564710539404</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04068797078852949</v>
+        <v>0.0260264142245665</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3877947554.920331</v>
+        <v>5244759914.068374</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09566675972884556</v>
+        <v>0.0774815690474449</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03289651167027607</v>
+        <v>0.03343660431899853</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5127697185.581384</v>
+        <v>3353599523.523464</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1264217920941241</v>
+        <v>0.08427940744693313</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02425577190608914</v>
+        <v>0.02634750598808682</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4216723509.142402</v>
+        <v>4808939871.646885</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1652460389658597</v>
+        <v>0.1903933413359409</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01859501939256209</v>
+        <v>0.0212196480672113</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1813311580.15767</v>
+        <v>2090995076.231467</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1175175507117047</v>
+        <v>0.1575344780852465</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03887621601031752</v>
+        <v>0.03635350577702243</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2297520116.348036</v>
+        <v>2088440158.927318</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1134662050707975</v>
+        <v>0.09370859956490507</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05028365289685367</v>
+        <v>0.04298848539377673</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2902739227.508086</v>
+        <v>3167958446.511928</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1531584027419059</v>
+        <v>0.132031054145516</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03829796088499523</v>
+        <v>0.05337656328176636</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2161222059.993083</v>
+        <v>1801287183.480081</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1438971236239365</v>
+        <v>0.1196355124095569</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01885489225898338</v>
+        <v>0.01713504005005947</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1182244493.645185</v>
+        <v>1111315915.684088</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1203542891332816</v>
+        <v>0.1253173332646912</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03754423706216757</v>
+        <v>0.04199974469110399</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3170925279.064677</v>
+        <v>3705258774.358617</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1156783405927613</v>
+        <v>0.1099090583500136</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02743541933652469</v>
+        <v>0.03605822571675402</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3010761222.654022</v>
+        <v>3121875408.225304</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1243854572597348</v>
+        <v>0.1317658675782007</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03009706133115062</v>
+        <v>0.04103313973201545</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2035565512.916105</v>
+        <v>1542236881.476738</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1273193007742289</v>
+        <v>0.1079589209522074</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03412797497035252</v>
+        <v>0.04323912166794128</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1778287136.738958</v>
+        <v>1996733196.624638</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1460336429049414</v>
+        <v>0.130398508723302</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04112741320947806</v>
+        <v>0.05317109628285179</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2919428908.321003</v>
+        <v>2046872017.667654</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1002486114912959</v>
+        <v>0.0754575789122026</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04141038124949338</v>
+        <v>0.04127841630594593</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5019656100.62464</v>
+        <v>4188230088.776967</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1408252908875062</v>
+        <v>0.08581538470351439</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03981398353542377</v>
+        <v>0.04078970947472922</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2355249248.443646</v>
+        <v>2448029504.163086</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1083046533283214</v>
+        <v>0.1341112722390975</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02838533621902791</v>
+        <v>0.03808987170878481</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2961883778.705297</v>
+        <v>2858258248.697729</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1133504115692165</v>
+        <v>0.09948441582618098</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03941368548469849</v>
+        <v>0.05306146017329519</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1938727152.600604</v>
+        <v>2037427365.598924</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1271356006862214</v>
+        <v>0.1296540801001088</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03794276955765397</v>
+        <v>0.04128611540710651</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3264584362.972699</v>
+        <v>4551368243.367886</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1405342092474297</v>
+        <v>0.1586058599878384</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0259139603036281</v>
+        <v>0.02502731043106107</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2811167710.43666</v>
+        <v>2938674122.43015</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1242202339483109</v>
+        <v>0.1065250639829015</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02276965617393042</v>
+        <v>0.02345341886608616</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2470639154.526747</v>
+        <v>2641528907.658669</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1200496398298389</v>
+        <v>0.09093297041100189</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03273251665642577</v>
+        <v>0.0286684591989357</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3606613626.661174</v>
+        <v>4222922377.368489</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1238227242744015</v>
+        <v>0.1378529069948919</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02009184060717837</v>
+        <v>0.02793345906122564</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3342687603.958551</v>
+        <v>3462876402.02051</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1992209974872809</v>
+        <v>0.1521915707362907</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05035269008782164</v>
+        <v>0.0537910535462089</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_195.xlsx
+++ b/output/fit_clients/fit_round_195.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1738235040.838485</v>
+        <v>2226968519.165372</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1023105147115607</v>
+        <v>0.09677331585055197</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04230033546367433</v>
+        <v>0.0415865290911699</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1720669518.267852</v>
+        <v>2498566085.282001</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1807804847628298</v>
+        <v>0.1745490391017821</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04743816979954555</v>
+        <v>0.03280117434304242</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5104172210.426605</v>
+        <v>4709551936.073613</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1337065416428088</v>
+        <v>0.1015700501647122</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03535161564768888</v>
+        <v>0.02338445646297755</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>107</v>
+      </c>
+      <c r="J4" t="n">
+        <v>195</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2974166676.1364</v>
+        <v>3706839031.555659</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1060426148979971</v>
+        <v>0.09307353098634152</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03552811731038869</v>
+        <v>0.04225222080362777</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>81</v>
+      </c>
+      <c r="J5" t="n">
+        <v>195</v>
+      </c>
+      <c r="K5" t="n">
+        <v>133.5422894936124</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2797657004.438094</v>
+        <v>2831717443.729498</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09797390531079612</v>
+        <v>0.1092928434638273</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04282309671059102</v>
+        <v>0.04784020727733249</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2408293005.199056</v>
+        <v>2855144839.894832</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08524794753886214</v>
+        <v>0.06527611474139114</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03184305759688499</v>
+        <v>0.03083782248944906</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2685514286.640242</v>
+        <v>3431197903.037243</v>
       </c>
       <c r="F8" t="n">
-        <v>0.169640807482105</v>
+        <v>0.1753302917643396</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02295150433105177</v>
+        <v>0.032757504708237</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>55</v>
+      </c>
+      <c r="J8" t="n">
+        <v>194</v>
+      </c>
+      <c r="K8" t="n">
+        <v>101.1631995388957</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2011337232.94564</v>
+        <v>1959401467.770946</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1500297318292279</v>
+        <v>0.1872321393462007</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02773731537630891</v>
+        <v>0.02781376051591477</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4999452187.724837</v>
+        <v>5228979837.705903</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2105326677334484</v>
+        <v>0.1561078542423633</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04712705345529945</v>
+        <v>0.04156071068618965</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>178</v>
+      </c>
+      <c r="J10" t="n">
+        <v>195</v>
+      </c>
+      <c r="K10" t="n">
+        <v>132.2187042156309</v>
       </c>
     </row>
     <row r="11">
@@ -738,17 +822,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3765290582.959661</v>
+        <v>4271599743.13644</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1401123851142669</v>
+        <v>0.1885340590479083</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04001570531637723</v>
+        <v>0.04287737140569415</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>79</v>
+      </c>
+      <c r="J11" t="n">
+        <v>195</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2705615314.805881</v>
+        <v>2687438168.454453</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1287685698947448</v>
+        <v>0.1692384838982579</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03258591564044717</v>
+        <v>0.04849730653665724</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3728302416.103217</v>
+        <v>4999747252.863047</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09383962189288593</v>
+        <v>0.06287895212522278</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02105689620532274</v>
+        <v>0.01924636310364473</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>98</v>
+      </c>
+      <c r="J13" t="n">
+        <v>194</v>
+      </c>
+      <c r="K13" t="n">
+        <v>122.1778022445964</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3051136906.699274</v>
+        <v>3567296526.291242</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1600955112389637</v>
+        <v>0.1831921978771241</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0379033521311083</v>
+        <v>0.03403101280091343</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>36</v>
+      </c>
+      <c r="J14" t="n">
+        <v>195</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +964,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1208133601.390616</v>
+        <v>1777129138.21442</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09924438549502276</v>
+        <v>0.1041536001171584</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03609633561958839</v>
+        <v>0.04283623066717938</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2788032534.15102</v>
+        <v>2549478761.50233</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07005990124385811</v>
+        <v>0.08738701572491517</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03469086613354751</v>
+        <v>0.04266608599405167</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1028,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4353877320.351667</v>
+        <v>4612384201.721535</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1414500588922754</v>
+        <v>0.1346109108880971</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04762065402364672</v>
+        <v>0.05200034250576394</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>93</v>
+      </c>
+      <c r="J17" t="n">
+        <v>195</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,22 +1063,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2914942037.721265</v>
+        <v>2748902369.500081</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1580057615376463</v>
+        <v>0.1710475587022487</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02642980788176886</v>
+        <v>0.03162598778979069</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>49</v>
+      </c>
+      <c r="J18" t="n">
+        <v>194</v>
+      </c>
+      <c r="K18" t="n">
+        <v>63.76049627936104</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1232706407.688092</v>
+        <v>938338451.6434249</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1576549607949173</v>
+        <v>0.1719306315730223</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0233872675975551</v>
+        <v>0.02213452898138338</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2306109875.181419</v>
+        <v>1825770926.275313</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1486058559709186</v>
+        <v>0.1464602312994373</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02328796543863074</v>
+        <v>0.03122041727901356</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2422177080.269169</v>
+        <v>2408429580.757909</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08146332675054528</v>
+        <v>0.1014026026774007</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03782145388880587</v>
+        <v>0.03355593040283131</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1211,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3687681075.459656</v>
+        <v>3788663085.306453</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1258757275126239</v>
+        <v>0.127793036170651</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03465237573689235</v>
+        <v>0.05363475348014062</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>49</v>
+      </c>
+      <c r="J22" t="n">
+        <v>195</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1374476292.989425</v>
+        <v>1329294544.431516</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1617891309538389</v>
+        <v>0.1807903491552163</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0406322962798246</v>
+        <v>0.03418896828971846</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3079269776.481703</v>
+        <v>2779686168.926636</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1084943591616291</v>
+        <v>0.1164330631031822</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03453134696495772</v>
+        <v>0.0267286065238066</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>60</v>
+      </c>
+      <c r="J24" t="n">
+        <v>189</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1074700957.167866</v>
+        <v>954283721.0457276</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1064643954712881</v>
+        <v>0.1131772689472962</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02989956769808368</v>
+        <v>0.02026781751248924</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1346800217.813593</v>
+        <v>1293688718.696713</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08259136450615376</v>
+        <v>0.07541267618813911</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03297587865777177</v>
+        <v>0.03097646147112019</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1380,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4538625166.025579</v>
+        <v>2846808812.264278</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1216677342186022</v>
+        <v>0.09581544672562642</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01796705950371359</v>
+        <v>0.02208249422527</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>78</v>
+      </c>
+      <c r="J27" t="n">
+        <v>194</v>
+      </c>
+      <c r="K27" t="n">
+        <v>58.5122528066473</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1417,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3310317195.192807</v>
+        <v>2545373216.257992</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1367123807905072</v>
+        <v>0.1523217559589501</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04480670728253226</v>
+        <v>0.03677468037830346</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>40</v>
+      </c>
+      <c r="J28" t="n">
+        <v>193</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1458,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5230364366.480024</v>
+        <v>4750885915.702272</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1114931895499119</v>
+        <v>0.140929453556741</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04328956799698463</v>
+        <v>0.03830351768873085</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>184</v>
+      </c>
+      <c r="J29" t="n">
+        <v>195</v>
+      </c>
+      <c r="K29" t="n">
+        <v>138.071745947254</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2147993166.821418</v>
+        <v>2403642382.775201</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1020745817311766</v>
+        <v>0.1292755602732241</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0303349485396253</v>
+        <v>0.03960524710932176</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1214968623.254961</v>
+        <v>1195646582.83582</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1006036327296561</v>
+        <v>0.07272884449973574</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03568042052031813</v>
+        <v>0.04384630966474786</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1850581946.910286</v>
+        <v>1227635638.41263</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1072310002361402</v>
+        <v>0.1161035980893786</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03128809144084939</v>
+        <v>0.03725234302573752</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3067002710.676453</v>
+        <v>3014088712.877683</v>
       </c>
       <c r="F33" t="n">
-        <v>0.141086928672908</v>
+        <v>0.173550766231073</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04960052649198125</v>
+        <v>0.06057926827753143</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1281345419.451029</v>
+        <v>1530950514.845732</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1141558443640218</v>
+        <v>0.1008484512058976</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02140597143657516</v>
+        <v>0.02594669782843382</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>868058311.6325172</v>
+        <v>1236494534.156576</v>
       </c>
       <c r="F35" t="n">
-        <v>0.104201007527572</v>
+        <v>0.1007194177085798</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02867334705360369</v>
+        <v>0.03272888007178045</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1705,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2652127507.454832</v>
+        <v>2633644890.917661</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1735839962809181</v>
+        <v>0.1514493676158246</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02168607486482107</v>
+        <v>0.02526391131249477</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2403234253.293725</v>
+        <v>2109285027.399906</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07190743615114517</v>
+        <v>0.07811043085984166</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04233870098979208</v>
+        <v>0.02785393040503829</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1775,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1610611064.325196</v>
+        <v>1500714643.024716</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07496099475897593</v>
+        <v>0.09352077878677906</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03777196092384148</v>
+        <v>0.03618128395938253</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1747840244.377134</v>
+        <v>1688850155.423318</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1314319949336262</v>
+        <v>0.1488031529244073</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02994227384487213</v>
+        <v>0.03051957325846778</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1845,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1103108847.675316</v>
+        <v>1573158861.257373</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1225672511717291</v>
+        <v>0.09845475771934747</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05363669204801439</v>
+        <v>0.06007758694527817</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2926073480.39261</v>
+        <v>2181489626.313653</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1223497368004882</v>
+        <v>0.1210119482098407</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04492687135712942</v>
+        <v>0.02949128393422943</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1909,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3399993173.064349</v>
+        <v>4127618397.824992</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08908269763750951</v>
+        <v>0.1115817908161158</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03388946487667295</v>
+        <v>0.04090490533109235</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>75</v>
+      </c>
+      <c r="J42" t="n">
+        <v>195</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2733532301.702123</v>
+        <v>1908564894.417102</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1439240594846353</v>
+        <v>0.1296533509747973</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0205695380192235</v>
+        <v>0.02013296553220846</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1523270896.780502</v>
+        <v>2166530731.763124</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1010108558540058</v>
+        <v>0.07568209146387228</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03358903205882711</v>
+        <v>0.02519168373028963</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1988570749.003189</v>
+        <v>1675870402.921597</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1658825963565516</v>
+        <v>0.1867674828522315</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04551544587801221</v>
+        <v>0.05277297338025424</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2049,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4244033443.503867</v>
+        <v>4969740127.175073</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1100375716934158</v>
+        <v>0.150683595304451</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05582736771109814</v>
+        <v>0.0374084892767164</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>111</v>
+      </c>
+      <c r="J46" t="n">
+        <v>195</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1746,16 +2090,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4509487162.909637</v>
+        <v>3781640170.130974</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1419754675369886</v>
+        <v>0.1974412948329717</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03860829226070612</v>
+        <v>0.05700493425457176</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>87</v>
+      </c>
+      <c r="J47" t="n">
+        <v>194</v>
+      </c>
+      <c r="K47" t="n">
+        <v>98.34730245029232</v>
       </c>
     </row>
     <row r="48">
@@ -1774,16 +2127,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3722549067.337088</v>
+        <v>4173477971.381329</v>
       </c>
       <c r="F48" t="n">
-        <v>0.108197459438764</v>
+        <v>0.07840568455742661</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03043885343088665</v>
+        <v>0.02822104499808976</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>93</v>
+      </c>
+      <c r="J48" t="n">
+        <v>195</v>
+      </c>
+      <c r="K48" t="n">
+        <v>124.9942697141271</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1898280422.238489</v>
+        <v>1327081635.371156</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1747166643011314</v>
+        <v>0.1492654450400417</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03212304541056704</v>
+        <v>0.0386633360867841</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2193,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3736574656.067768</v>
+        <v>2813159337.7201</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1670302940087933</v>
+        <v>0.1411096487216932</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03828969000826826</v>
+        <v>0.03539076434827809</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>62</v>
+      </c>
+      <c r="J50" t="n">
+        <v>193</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1499104187.907514</v>
+        <v>1078522322.082522</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1654625389863904</v>
+        <v>0.1825364064309548</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04050091176547226</v>
+        <v>0.03277559729367389</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2263,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4554738094.133731</v>
+        <v>3876647893.830405</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1089967402622781</v>
+        <v>0.1316698371723637</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03889813542295559</v>
+        <v>0.04256961131464833</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>135</v>
+      </c>
+      <c r="J52" t="n">
+        <v>195</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1914,17 +2304,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2686156038.484195</v>
+        <v>3430297108.426398</v>
       </c>
       <c r="F53" t="n">
-        <v>0.162952427914991</v>
+        <v>0.1613439693470182</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03515652959566565</v>
+        <v>0.03207219074592943</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>26</v>
+      </c>
+      <c r="J53" t="n">
+        <v>185</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2333,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4638328059.295437</v>
+        <v>4248903547.177253</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1693364694370008</v>
+        <v>0.1323718022448596</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04248467520512389</v>
+        <v>0.05171279021480314</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>99</v>
+      </c>
+      <c r="J54" t="n">
+        <v>195</v>
+      </c>
+      <c r="K54" t="n">
+        <v>124.9747153852969</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2370,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4832886552.723119</v>
+        <v>3906870034.992765</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1898995453296938</v>
+        <v>0.1722046386065643</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0207994783178969</v>
+        <v>0.03107898081157881</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>87</v>
+      </c>
+      <c r="J55" t="n">
+        <v>195</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1998,17 +2411,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1152919749.700526</v>
+        <v>1210708087.35043</v>
       </c>
       <c r="F56" t="n">
-        <v>0.135162591823102</v>
+        <v>0.156057976057426</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05475737639543694</v>
+        <v>0.05345097211402403</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2440,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4482743798.420221</v>
+        <v>2967860314.932238</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1833963632754007</v>
+        <v>0.1730637782003899</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01704622827465881</v>
+        <v>0.01760649600424531</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>78</v>
+      </c>
+      <c r="J57" t="n">
+        <v>194</v>
+      </c>
+      <c r="K57" t="n">
+        <v>74.89910785347314</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1601034074.656563</v>
+        <v>1496076957.109236</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1777707542761961</v>
+        <v>0.1534773987558664</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03346031039344606</v>
+        <v>0.02620097360304029</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2512,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4902378266.735373</v>
+        <v>3895671847.534546</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1103890845772716</v>
+        <v>0.1004500480394218</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04371336722326015</v>
+        <v>0.0411759755772141</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>94</v>
+      </c>
+      <c r="J59" t="n">
+        <v>194</v>
+      </c>
+      <c r="K59" t="n">
+        <v>113.0724222390214</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3501397920.73624</v>
+        <v>3512808237.958297</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2052641973500876</v>
+        <v>0.2065684056726398</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02817513267465858</v>
+        <v>0.02341017698661606</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>28</v>
+      </c>
+      <c r="J60" t="n">
+        <v>189</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3114823067.214436</v>
+        <v>2247155147.521859</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1153174934756558</v>
+        <v>0.146359223295512</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02719629172443833</v>
+        <v>0.02265107787972709</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1699687126.59015</v>
+        <v>1659926893.727186</v>
       </c>
       <c r="F62" t="n">
-        <v>0.174173838159705</v>
+        <v>0.1467567745677287</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04655246554189052</v>
+        <v>0.04567963337969135</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2654,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4104474642.180499</v>
+        <v>5008171510.168729</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07958854477331116</v>
+        <v>0.08245170873024893</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04044100030233056</v>
+        <v>0.04094332425584186</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>96</v>
+      </c>
+      <c r="J63" t="n">
+        <v>194</v>
+      </c>
+      <c r="K63" t="n">
+        <v>115.0842046636437</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2691,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3812877708.428616</v>
+        <v>5451273978.491913</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1353248252225221</v>
+        <v>0.1788793595120348</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03562612093607882</v>
+        <v>0.03041806398442439</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>96</v>
+      </c>
+      <c r="J64" t="n">
+        <v>194</v>
+      </c>
+      <c r="K64" t="n">
+        <v>115.7611943638994</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2728,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5022767425.660369</v>
+        <v>5247803551.561867</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1252108562103941</v>
+        <v>0.111115737405299</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0279488722081273</v>
+        <v>0.02198027431353575</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>159</v>
+      </c>
+      <c r="J65" t="n">
+        <v>194</v>
+      </c>
+      <c r="K65" t="n">
+        <v>123.5113693290635</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2771,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5379562276.493884</v>
+        <v>4986235022.144541</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1207084661526006</v>
+        <v>0.1521710398399725</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04438395135701043</v>
+        <v>0.03540140323941709</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>96</v>
+      </c>
+      <c r="J66" t="n">
+        <v>194</v>
+      </c>
+      <c r="K66" t="n">
+        <v>111.6243476799486</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2802,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2587069323.436745</v>
+        <v>2154261234.530154</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09946561238515707</v>
+        <v>0.07947211850392859</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03258128890796499</v>
+        <v>0.03290597796515438</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>188</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2843,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4791393276.719157</v>
+        <v>3866480352.361726</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1349911714561688</v>
+        <v>0.1521027781424187</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04604785145713307</v>
+        <v>0.03869083155781226</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>98</v>
+      </c>
+      <c r="J68" t="n">
+        <v>195</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2872,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2361281115.903723</v>
+        <v>1827052140.153299</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1387002594447476</v>
+        <v>0.1298245487206639</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05895566030184344</v>
+        <v>0.05467982904567087</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2907,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2961175940.07186</v>
+        <v>3316776409.394632</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06313224036221529</v>
+        <v>0.1028564101562474</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04668012274504765</v>
+        <v>0.04305029978276596</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>28</v>
+      </c>
+      <c r="J70" t="n">
+        <v>193</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,17 +2948,24 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4904307760.329293</v>
+        <v>3842601872.317674</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1228455840924015</v>
+        <v>0.1322381794576754</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02717878084268209</v>
+        <v>0.02134597680318308</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>150</v>
+      </c>
+      <c r="J71" t="n">
+        <v>195</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2446,17 +2983,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1538735629.571114</v>
+        <v>1781746335.148891</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07750895924919741</v>
+        <v>0.08552338568655796</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03557805125523194</v>
+        <v>0.05061129868304071</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3018,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2349122455.327673</v>
+        <v>3222064073.165007</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09043631167094943</v>
+        <v>0.08956486646095628</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05185911357037457</v>
+        <v>0.04218474971391577</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>11</v>
+      </c>
+      <c r="J73" t="n">
+        <v>185</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3053,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3913504622.009728</v>
+        <v>3553607659.130803</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1578505085974322</v>
+        <v>0.1355305405572753</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03493959128635997</v>
+        <v>0.02723033933958108</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>55</v>
+      </c>
+      <c r="J74" t="n">
+        <v>189</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3088,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1972302084.101669</v>
+        <v>1657515344.794468</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1460201153637212</v>
+        <v>0.1373209598231009</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03696764940322638</v>
+        <v>0.02604551362985117</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3117,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4861058082.184107</v>
+        <v>3280537205.464307</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1017478785849916</v>
+        <v>0.09343392165252284</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03089276683932049</v>
+        <v>0.02390394190389564</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>89</v>
+      </c>
+      <c r="J76" t="n">
+        <v>194</v>
+      </c>
+      <c r="K76" t="n">
+        <v>78.65856811563998</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2089929104.048824</v>
+        <v>1509285930.075802</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1291141686105608</v>
+        <v>0.1415239811523731</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03159907930553466</v>
+        <v>0.02780427472755877</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3189,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4465131069.220256</v>
+        <v>3844685279.817454</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1241641816454669</v>
+        <v>0.09374632600713681</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03791916059976511</v>
+        <v>0.03732259366721032</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>98</v>
+      </c>
+      <c r="J78" t="n">
+        <v>195</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1176703550.336292</v>
+        <v>1287816682.688323</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1722564710539404</v>
+        <v>0.1214905689510464</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0260264142245665</v>
+        <v>0.03913186187233211</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3265,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5244759914.068374</v>
+        <v>3999138612.154313</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0774815690474449</v>
+        <v>0.1112674610616512</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03343660431899853</v>
+        <v>0.02369774348893468</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>95</v>
+      </c>
+      <c r="J80" t="n">
+        <v>195</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,17 +3300,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3353599523.523464</v>
+        <v>4494184227.141953</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08427940744693313</v>
+        <v>0.09857531813956111</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02634750598808682</v>
+        <v>0.02902581527744427</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>89</v>
+      </c>
+      <c r="J81" t="n">
+        <v>195</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4808939871.646885</v>
+        <v>3449862376.830873</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1903933413359409</v>
+        <v>0.1762948939110946</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0212196480672113</v>
+        <v>0.02300261304334521</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>144</v>
+      </c>
+      <c r="J82" t="n">
+        <v>194</v>
+      </c>
+      <c r="K82" t="n">
+        <v>108.2542876353339</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2090995076.231467</v>
+        <v>2383637383.407588</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1575344780852465</v>
+        <v>0.129397714497714</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03635350577702243</v>
+        <v>0.0359580957732295</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2088440158.927318</v>
+        <v>1715762522.465832</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09370859956490507</v>
+        <v>0.08206476938253035</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04298848539377673</v>
+        <v>0.04550693089565781</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3167958446.511928</v>
+        <v>2698913705.593983</v>
       </c>
       <c r="F85" t="n">
-        <v>0.132031054145516</v>
+        <v>0.1843991324094831</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05337656328176636</v>
+        <v>0.04046882546784993</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>27</v>
+      </c>
+      <c r="J85" t="n">
+        <v>170</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1801287183.480081</v>
+        <v>2465987950.897128</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1196355124095569</v>
+        <v>0.1103515924665461</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01713504005005947</v>
+        <v>0.02276783009186657</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3512,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1111315915.684088</v>
+        <v>1243126876.656783</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1253173332646912</v>
+        <v>0.1431842832684672</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04199974469110399</v>
+        <v>0.0293732680766657</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3705258774.358617</v>
+        <v>2490755021.760082</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1099090583500136</v>
+        <v>0.1530351171779376</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03605822571675402</v>
+        <v>0.03877660651252926</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>28</v>
+      </c>
+      <c r="J88" t="n">
+        <v>192</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3121875408.225304</v>
+        <v>3411374850.767347</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1317658675782007</v>
+        <v>0.1128743107365076</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04103313973201545</v>
+        <v>0.04032781692323623</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>14</v>
+      </c>
+      <c r="J89" t="n">
+        <v>190</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1542236881.476738</v>
+        <v>1748802274.194813</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1079589209522074</v>
+        <v>0.1173601369363807</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04323912166794128</v>
+        <v>0.04656878368984244</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1996733196.624638</v>
+        <v>1652140844.733243</v>
       </c>
       <c r="F91" t="n">
-        <v>0.130398508723302</v>
+        <v>0.1936467521456098</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05317109628285179</v>
+        <v>0.03892535723272606</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3687,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2046872017.667654</v>
+        <v>2055419798.09345</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0754575789122026</v>
+        <v>0.07270875182148899</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04127841630594593</v>
+        <v>0.04637967070175</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4188230088.776967</v>
+        <v>3523465802.446007</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08581538470351439</v>
+        <v>0.1275041828104369</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04078970947472922</v>
+        <v>0.05095537674612822</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>88</v>
+      </c>
+      <c r="J93" t="n">
+        <v>194</v>
+      </c>
+      <c r="K93" t="n">
+        <v>100.5488748764614</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2448029504.163086</v>
+        <v>2449068824.95503</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1341112722390975</v>
+        <v>0.1612225870097367</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03808987170878481</v>
+        <v>0.04106914111161749</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2858258248.697729</v>
+        <v>2374674267.981225</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09948441582618098</v>
+        <v>0.1270294270157705</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05306146017329519</v>
+        <v>0.04195221608685077</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2037427365.598924</v>
+        <v>2127547860.851241</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1296540801001088</v>
+        <v>0.08764733234678466</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04128611540710651</v>
+        <v>0.04459999497689032</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4551368243.367886</v>
+        <v>3719336233.244253</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1586058599878384</v>
+        <v>0.1587454832751905</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02502731043106107</v>
+        <v>0.02893356731642713</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>94</v>
+      </c>
+      <c r="J97" t="n">
+        <v>195</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2938674122.43015</v>
+        <v>2619947191.20881</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1065250639829015</v>
+        <v>0.1088053935475305</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02345341886608616</v>
+        <v>0.01990776105647468</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>48</v>
+      </c>
+      <c r="J98" t="n">
+        <v>193</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2641528907.658669</v>
+        <v>2295430620.082601</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09093297041100189</v>
+        <v>0.1365988349862986</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0286684591989357</v>
+        <v>0.0273270804625792</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4222922377.368489</v>
+        <v>3501711650.059073</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1378529069948919</v>
+        <v>0.1109615228046868</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02793345906122564</v>
+        <v>0.02737713456848132</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>81</v>
+      </c>
+      <c r="J100" t="n">
+        <v>194</v>
+      </c>
+      <c r="K100" t="n">
+        <v>99.86076141018259</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3462876402.02051</v>
+        <v>3125353206.879943</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1521915707362907</v>
+        <v>0.2140907948563907</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0537910535462089</v>
+        <v>0.04719572712333101</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
